--- a/www/ig/fhir/annuaire/StructureDefinition-as-dr-practitioner.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dr-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10691" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10691" uniqueCount="940">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1725,9 +1725,13 @@
     <t>Practitioner.identifier:idNatPs.type</t>
   </si>
   <si>
+    <t>Type d’identifiant national de la personne physique (typeIdNat_PP),
+Les codes ADELI, RPPS et IDNPS proviennent du system  https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203 ; Les codes 1, 3, 4, 5, 6 proviennent du system : https://mos.esante.gouv.fr/NOS/TRE_G08-TypeIdentifiantPersonne/FHIR/TRE-G08-TypeIdentifiantPersonne</t>
+  </si>
+  <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="IDNPS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1787,7 +1791,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="RPPS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1796,7 +1800,7 @@
     <t>Practitioner.identifier:rpps.system</t>
   </si>
   <si>
-    <t>http://rpps.esante.gouv.fr</t>
+    <t>https://rpps.esante.gouv.fr</t>
   </si>
   <si>
     <t>Practitioner.identifier:rpps.value</t>
@@ -1831,7 +1835,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="ADELI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1840,7 +1844,7 @@
     <t>Practitioner.identifier:adeli.system</t>
   </si>
   <si>
-    <t>http://adeli.esante.gouv.fr</t>
+    <t>https://adeli.esante.gouv.fr</t>
   </si>
   <si>
     <t>Practitioner.identifier:adeli.value</t>
@@ -21694,7 +21698,7 @@
         <v>233</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>444</v>
+        <v>551</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>445</v>
@@ -21713,7 +21717,7 @@
         <v>78</v>
       </c>
       <c r="S159" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="T159" t="s" s="2">
         <v>78</v>
@@ -21731,10 +21735,10 @@
         <v>158</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z159" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>78</v>
@@ -21784,7 +21788,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>509</v>
@@ -21816,7 +21820,7 @@
         <v>510</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N160" t="s" s="2">
         <v>512</v>
@@ -21832,7 +21836,7 @@
         <v>78</v>
       </c>
       <c r="S160" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T160" t="s" s="2">
         <v>514</v>
@@ -21903,7 +21907,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>519</v>
@@ -21932,7 +21936,7 @@
         <v>104</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>521</v>
@@ -22020,7 +22024,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>528</v>
@@ -22135,7 +22139,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>535</v>
@@ -22252,13 +22256,13 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>421</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>78</v>
@@ -22283,7 +22287,7 @@
         <v>422</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>424</v>
@@ -22371,7 +22375,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>432</v>
@@ -22486,7 +22490,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>433</v>
@@ -22603,7 +22607,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>434</v>
@@ -22722,7 +22726,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>443</v>
@@ -22751,7 +22755,7 @@
         <v>233</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M168" t="s" s="2">
         <v>445</v>
@@ -22770,7 +22774,7 @@
         <v>78</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>78</v>
@@ -22788,10 +22792,10 @@
         <v>158</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>78</v>
@@ -22841,7 +22845,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>509</v>
@@ -22873,7 +22877,7 @@
         <v>510</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>512</v>
@@ -22889,7 +22893,7 @@
         <v>78</v>
       </c>
       <c r="S169" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T169" t="s" s="2">
         <v>514</v>
@@ -22960,7 +22964,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>519</v>
@@ -23077,7 +23081,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>528</v>
@@ -23192,7 +23196,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>535</v>
@@ -23309,13 +23313,13 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>421</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>78</v>
@@ -23340,7 +23344,7 @@
         <v>422</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>424</v>
@@ -23428,7 +23432,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>432</v>
@@ -23543,7 +23547,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>433</v>
@@ -23660,7 +23664,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>434</v>
@@ -23779,7 +23783,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>443</v>
@@ -23808,7 +23812,7 @@
         <v>233</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>445</v>
@@ -23827,7 +23831,7 @@
         <v>78</v>
       </c>
       <c r="S177" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="T177" t="s" s="2">
         <v>78</v>
@@ -23845,10 +23849,10 @@
         <v>158</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>78</v>
@@ -23898,7 +23902,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>509</v>
@@ -23930,7 +23934,7 @@
         <v>510</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N178" t="s" s="2">
         <v>512</v>
@@ -23946,7 +23950,7 @@
         <v>78</v>
       </c>
       <c r="S178" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T178" t="s" s="2">
         <v>514</v>
@@ -24017,7 +24021,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>519</v>
@@ -24134,7 +24138,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>528</v>
@@ -24249,7 +24253,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>535</v>
@@ -24366,10 +24370,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24395,67 +24399,67 @@
         <v>297</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M182" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="P182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q182" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="R182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE182" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF182" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="P182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q182" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="R182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE182" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF182" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>79</v>
@@ -24476,21 +24480,21 @@
         <v>78</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24513,19 +24517,19 @@
         <v>78</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>78</v>
@@ -24574,7 +24578,7 @@
         <v>78</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>79</v>
@@ -24592,13 +24596,13 @@
         <v>78</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>78</v>
@@ -24606,10 +24610,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24721,10 +24725,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24838,13 +24842,13 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B186" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="B186" t="s" s="2">
-        <v>606</v>
-      </c>
       <c r="C186" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>78</v>
@@ -24866,13 +24870,13 @@
         <v>78</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -24955,10 +24959,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24984,16 +24988,16 @@
         <v>176</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>78</v>
@@ -25022,7 +25026,7 @@
       </c>
       <c r="Y187" s="2"/>
       <c r="Z187" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>78</v>
@@ -25040,7 +25044,7 @@
         <v>78</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>79</v>
@@ -25058,13 +25062,13 @@
         <v>78</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AO187" t="s" s="2">
         <v>78</v>
@@ -25072,10 +25076,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25101,16 +25105,16 @@
         <v>104</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>78</v>
@@ -25159,7 +25163,7 @@
         <v>78</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>79</v>
@@ -25177,10 +25181,10 @@
         <v>78</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>78</v>
@@ -25191,14 +25195,14 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
@@ -25220,13 +25224,13 @@
         <v>104</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -25276,7 +25280,7 @@
         <v>78</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>79</v>
@@ -25294,13 +25298,13 @@
         <v>78</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AO189" t="s" s="2">
         <v>78</v>
@@ -25308,14 +25312,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25337,13 +25341,13 @@
         <v>104</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
@@ -25393,7 +25397,7 @@
         <v>78</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>79</v>
@@ -25411,13 +25415,13 @@
         <v>78</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AO190" t="s" s="2">
         <v>78</v>
@@ -25425,10 +25429,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25454,10 +25458,10 @@
         <v>104</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -25487,10 +25491,10 @@
         <v>158</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>78</v>
@@ -25508,7 +25512,7 @@
         <v>78</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>79</v>
@@ -25526,13 +25530,13 @@
         <v>78</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AO191" t="s" s="2">
         <v>78</v>
@@ -25540,10 +25544,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -25569,10 +25573,10 @@
         <v>104</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -25602,10 +25606,10 @@
         <v>158</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>78</v>
@@ -25623,7 +25627,7 @@
         <v>78</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>79</v>
@@ -25641,10 +25645,10 @@
         <v>78</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>78</v>
@@ -25655,10 +25659,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25684,14 +25688,14 @@
         <v>253</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>78</v>
@@ -25740,7 +25744,7 @@
         <v>78</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>79</v>
@@ -25758,10 +25762,10 @@
         <v>78</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>534</v>
@@ -25772,10 +25776,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -25798,19 +25802,19 @@
         <v>78</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>78</v>
@@ -25847,7 +25851,7 @@
         <v>78</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AC194" s="2"/>
       <c r="AD194" t="s" s="2">
@@ -25857,7 +25861,7 @@
         <v>117</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>79</v>
@@ -25869,19 +25873,19 @@
         <v>209</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AK194" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AN194" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AO194" t="s" s="2">
         <v>78</v>
@@ -25889,10 +25893,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26004,10 +26008,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26121,13 +26125,13 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B197" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="B197" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="C197" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>78</v>
@@ -26149,13 +26153,13 @@
         <v>78</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -26238,10 +26242,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26267,10 +26271,10 @@
         <v>176</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26300,10 +26304,10 @@
         <v>236</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>78</v>
@@ -26321,7 +26325,7 @@
         <v>78</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>79</v>
@@ -26330,7 +26334,7 @@
         <v>90</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>102</v>
@@ -26339,13 +26343,13 @@
         <v>78</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AO198" t="s" s="2">
         <v>78</v>
@@ -26353,10 +26357,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26382,16 +26386,16 @@
         <v>104</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>78</v>
@@ -26440,7 +26444,7 @@
         <v>78</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>79</v>
@@ -26458,10 +26462,10 @@
         <v>78</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>527</v>
@@ -26472,10 +26476,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26501,16 +26505,16 @@
         <v>176</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="O200" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>78</v>
@@ -26538,10 +26542,10 @@
         <v>236</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>78</v>
@@ -26559,7 +26563,7 @@
         <v>78</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>79</v>
@@ -26577,13 +26581,13 @@
         <v>78</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>78</v>
@@ -26591,10 +26595,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26617,16 +26621,16 @@
         <v>91</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -26676,7 +26680,7 @@
         <v>78</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>79</v>
@@ -26708,10 +26712,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -26737,10 +26741,10 @@
         <v>253</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -26791,7 +26795,7 @@
         <v>78</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>79</v>
@@ -26812,7 +26816,7 @@
         <v>199</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>534</v>
@@ -26823,13 +26827,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>78</v>
@@ -26851,19 +26855,19 @@
         <v>78</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>78</v>
@@ -26912,7 +26916,7 @@
         <v>78</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>79</v>
@@ -26924,19 +26928,19 @@
         <v>209</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>78</v>
@@ -26944,10 +26948,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26970,19 +26974,19 @@
         <v>78</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>78</v>
@@ -27031,7 +27035,7 @@
         <v>78</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>79</v>
@@ -27049,13 +27053,13 @@
         <v>78</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AO204" t="s" s="2">
         <v>78</v>
@@ -27063,10 +27067,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27092,14 +27096,14 @@
         <v>176</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>78</v>
@@ -27127,10 +27131,10 @@
         <v>236</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Z205" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AA205" t="s" s="2">
         <v>78</v>
@@ -27148,7 +27152,7 @@
         <v>78</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>79</v>
@@ -27166,13 +27170,13 @@
         <v>78</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AO205" t="s" s="2">
         <v>78</v>
@@ -27180,10 +27184,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27206,17 +27210,17 @@
         <v>91</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>78</v>
@@ -27265,7 +27269,7 @@
         <v>78</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>79</v>
@@ -27283,13 +27287,13 @@
         <v>78</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>78</v>
@@ -27297,10 +27301,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27326,14 +27330,14 @@
         <v>412</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>78</v>
@@ -27382,7 +27386,7 @@
         <v>78</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>79</v>
@@ -27403,10 +27407,10 @@
         <v>78</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AO207" t="s" s="2">
         <v>78</v>
@@ -27414,10 +27418,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27440,13 +27444,13 @@
         <v>78</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -27485,7 +27489,7 @@
         <v>78</v>
       </c>
       <c r="AB208" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AC208" s="2"/>
       <c r="AD208" t="s" s="2">
@@ -27495,7 +27499,7 @@
         <v>117</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>79</v>
@@ -27513,13 +27517,13 @@
         <v>78</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AO208" t="s" s="2">
         <v>78</v>
@@ -27527,10 +27531,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27642,10 +27646,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27759,14 +27763,14 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
@@ -27788,10 +27792,10 @@
         <v>111</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N211" t="s" s="2">
         <v>114</v>
@@ -27846,7 +27850,7 @@
         <v>78</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>79</v>
@@ -27878,10 +27882,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -27907,14 +27911,14 @@
         <v>422</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>78</v>
@@ -27963,7 +27967,7 @@
         <v>78</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>79</v>
@@ -27984,7 +27988,7 @@
         <v>78</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>78</v>
@@ -27995,10 +27999,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28024,10 +28028,10 @@
         <v>233</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -28058,7 +28062,7 @@
       </c>
       <c r="Y213" s="2"/>
       <c r="Z213" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AA213" t="s" s="2">
         <v>78</v>
@@ -28076,7 +28080,7 @@
         <v>78</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>90</v>
@@ -28097,10 +28101,10 @@
         <v>78</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN213" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AO213" t="s" s="2">
         <v>78</v>
@@ -28108,10 +28112,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28137,14 +28141,14 @@
         <v>253</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>78</v>
@@ -28193,7 +28197,7 @@
         <v>78</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>79</v>
@@ -28214,10 +28218,10 @@
         <v>78</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>78</v>
@@ -28225,10 +28229,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28254,10 +28258,10 @@
         <v>536</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -28308,7 +28312,7 @@
         <v>78</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>79</v>
@@ -28329,7 +28333,7 @@
         <v>78</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>78</v>
@@ -28340,13 +28344,13 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D216" t="s" s="2">
         <v>78</v>
@@ -28368,13 +28372,13 @@
         <v>78</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -28425,7 +28429,7 @@
         <v>78</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>79</v>
@@ -28443,13 +28447,13 @@
         <v>78</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>78</v>
@@ -28457,10 +28461,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28572,10 +28576,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28685,13 +28689,13 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D219" t="s" s="2">
         <v>78</v>
@@ -28713,13 +28717,13 @@
         <v>78</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -28802,10 +28806,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28917,10 +28921,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29034,13 +29038,13 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="B222" t="s" s="2">
         <v>813</v>
       </c>
-      <c r="B222" t="s" s="2">
-        <v>812</v>
-      </c>
       <c r="C222" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D222" t="s" s="2">
         <v>78</v>
@@ -29151,10 +29155,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29266,10 +29270,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29381,10 +29385,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29424,7 +29428,7 @@
       </c>
       <c r="Q225" s="2"/>
       <c r="R225" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="S225" t="s" s="2">
         <v>78</v>
@@ -29498,10 +29502,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29561,7 +29565,7 @@
       </c>
       <c r="Y226" s="2"/>
       <c r="Z226" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>78</v>
@@ -29611,13 +29615,13 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D227" t="s" s="2">
         <v>78</v>
@@ -29728,10 +29732,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -29843,10 +29847,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -29958,10 +29962,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30001,7 +30005,7 @@
       </c>
       <c r="Q230" s="2"/>
       <c r="R230" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="S230" t="s" s="2">
         <v>78</v>
@@ -30075,10 +30079,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -30138,7 +30142,7 @@
       </c>
       <c r="Y231" s="2"/>
       <c r="Z231" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AA231" t="s" s="2">
         <v>78</v>
@@ -30188,13 +30192,13 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>78</v>
@@ -30305,10 +30309,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30420,10 +30424,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30535,10 +30539,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30578,7 +30582,7 @@
       </c>
       <c r="Q235" s="2"/>
       <c r="R235" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="S235" t="s" s="2">
         <v>78</v>
@@ -30652,10 +30656,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30715,7 +30719,7 @@
       </c>
       <c r="Y236" s="2"/>
       <c r="Z236" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>78</v>
@@ -30765,10 +30769,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -30808,7 +30812,7 @@
       </c>
       <c r="Q237" s="2"/>
       <c r="R237" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="S237" t="s" s="2">
         <v>78</v>
@@ -30882,10 +30886,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -30997,14 +31001,14 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
@@ -31026,10 +31030,10 @@
         <v>111</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N239" t="s" s="2">
         <v>114</v>
@@ -31084,7 +31088,7 @@
         <v>78</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>79</v>
@@ -31116,10 +31120,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -31145,14 +31149,14 @@
         <v>422</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>78</v>
@@ -31201,7 +31205,7 @@
         <v>78</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>79</v>
@@ -31222,7 +31226,7 @@
         <v>78</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AN240" t="s" s="2">
         <v>78</v>
@@ -31233,10 +31237,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -31262,10 +31266,10 @@
         <v>233</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
@@ -31296,7 +31300,7 @@
       </c>
       <c r="Y241" s="2"/>
       <c r="Z241" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AA241" t="s" s="2">
         <v>78</v>
@@ -31314,7 +31318,7 @@
         <v>78</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>90</v>
@@ -31335,10 +31339,10 @@
         <v>78</v>
       </c>
       <c r="AM241" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN241" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AO241" t="s" s="2">
         <v>78</v>
@@ -31346,10 +31350,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -31461,10 +31465,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -31578,10 +31582,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -31653,14 +31657,14 @@
         <v>78</v>
       </c>
       <c r="AB244" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AC244" s="2"/>
       <c r="AD244" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>458</v>
@@ -31695,13 +31699,13 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D245" t="s" s="2">
         <v>78</v>
@@ -31764,7 +31768,7 @@
       </c>
       <c r="Y245" s="2"/>
       <c r="Z245" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AA245" t="s" s="2">
         <v>78</v>
@@ -31814,13 +31818,13 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D246" t="s" s="2">
         <v>78</v>
@@ -31883,7 +31887,7 @@
       </c>
       <c r="Y246" s="2"/>
       <c r="Z246" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AA246" t="s" s="2">
         <v>78</v>
@@ -31933,10 +31937,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -32052,10 +32056,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -32081,14 +32085,14 @@
         <v>253</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>78</v>
@@ -32137,7 +32141,7 @@
         <v>78</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>79</v>
@@ -32158,10 +32162,10 @@
         <v>78</v>
       </c>
       <c r="AM248" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AN248" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AO248" t="s" s="2">
         <v>78</v>
@@ -32169,10 +32173,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -32284,10 +32288,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -32401,10 +32405,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -32430,7 +32434,7 @@
         <v>260</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M251" t="s" s="2">
         <v>262</v>
@@ -32518,10 +32522,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -32547,7 +32551,7 @@
         <v>260</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="M252" t="s" s="2">
         <v>271</v>
@@ -32637,10 +32641,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -32663,13 +32667,13 @@
         <v>78</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
@@ -32720,7 +32724,7 @@
         <v>78</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG253" t="s" s="2">
         <v>79</v>
@@ -32741,7 +32745,7 @@
         <v>78</v>
       </c>
       <c r="AM253" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AN253" t="s" s="2">
         <v>78</v>
@@ -32752,13 +32756,13 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D254" t="s" s="2">
         <v>78</v>
@@ -32780,13 +32784,13 @@
         <v>78</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -32837,7 +32841,7 @@
         <v>78</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AG254" t="s" s="2">
         <v>79</v>
@@ -32855,13 +32859,13 @@
         <v>78</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AM254" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN254" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AO254" t="s" s="2">
         <v>78</v>
@@ -32869,10 +32873,10 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -32984,10 +32988,10 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -33101,14 +33105,14 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" t="s" s="2">
@@ -33130,10 +33134,10 @@
         <v>111</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N257" t="s" s="2">
         <v>114</v>
@@ -33188,7 +33192,7 @@
         <v>78</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>79</v>
@@ -33220,10 +33224,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -33249,14 +33253,14 @@
         <v>422</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="P258" t="s" s="2">
         <v>78</v>
@@ -33305,7 +33309,7 @@
         <v>78</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>79</v>
@@ -33326,7 +33330,7 @@
         <v>78</v>
       </c>
       <c r="AM258" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AN258" t="s" s="2">
         <v>78</v>
@@ -33337,10 +33341,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -33366,10 +33370,10 @@
         <v>233</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -33400,7 +33404,7 @@
       </c>
       <c r="Y259" s="2"/>
       <c r="Z259" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AA259" t="s" s="2">
         <v>78</v>
@@ -33418,7 +33422,7 @@
         <v>78</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>90</v>
@@ -33439,10 +33443,10 @@
         <v>78</v>
       </c>
       <c r="AM259" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN259" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AO259" t="s" s="2">
         <v>78</v>
@@ -33450,10 +33454,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -33565,10 +33569,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -33682,10 +33686,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -33757,14 +33761,14 @@
         <v>78</v>
       </c>
       <c r="AB262" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AC262" s="2"/>
       <c r="AD262" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>458</v>
@@ -33799,13 +33803,13 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D263" t="s" s="2">
         <v>78</v>
@@ -33830,7 +33834,7 @@
         <v>154</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M263" t="s" s="2">
         <v>455</v>
@@ -33868,7 +33872,7 @@
       </c>
       <c r="Y263" s="2"/>
       <c r="Z263" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AA263" t="s" s="2">
         <v>78</v>
@@ -33918,10 +33922,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C264" t="s" s="2">
         <v>337</v>
@@ -33949,7 +33953,7 @@
         <v>154</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M264" t="s" s="2">
         <v>455</v>
@@ -34037,10 +34041,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -34156,10 +34160,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -34185,14 +34189,14 @@
         <v>253</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="P266" t="s" s="2">
         <v>78</v>
@@ -34241,7 +34245,7 @@
         <v>78</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>79</v>
@@ -34262,10 +34266,10 @@
         <v>78</v>
       </c>
       <c r="AM266" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AN266" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AO266" t="s" s="2">
         <v>78</v>
@@ -34273,10 +34277,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -34388,10 +34392,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -34505,10 +34509,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -34534,7 +34538,7 @@
         <v>260</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M269" t="s" s="2">
         <v>262</v>
@@ -34622,10 +34626,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -34651,7 +34655,7 @@
         <v>260</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M270" t="s" s="2">
         <v>271</v>
@@ -34741,10 +34745,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -34770,10 +34774,10 @@
         <v>536</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -34824,7 +34828,7 @@
         <v>78</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>79</v>
@@ -34845,7 +34849,7 @@
         <v>78</v>
       </c>
       <c r="AM271" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AN271" t="s" s="2">
         <v>78</v>
@@ -34856,13 +34860,13 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D272" t="s" s="2">
         <v>78</v>
@@ -34884,13 +34888,13 @@
         <v>78</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -34941,7 +34945,7 @@
         <v>78</v>
       </c>
       <c r="AF272" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AG272" t="s" s="2">
         <v>79</v>
@@ -34959,13 +34963,13 @@
         <v>78</v>
       </c>
       <c r="AL272" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AM272" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN272" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AO272" t="s" s="2">
         <v>78</v>
@@ -34973,10 +34977,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -35088,10 +35092,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -35205,14 +35209,14 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" t="s" s="2">
@@ -35234,10 +35238,10 @@
         <v>111</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="N275" t="s" s="2">
         <v>114</v>
@@ -35292,7 +35296,7 @@
         <v>78</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>79</v>
@@ -35324,10 +35328,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -35353,14 +35357,14 @@
         <v>422</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="P276" t="s" s="2">
         <v>78</v>
@@ -35409,7 +35413,7 @@
         <v>78</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>79</v>
@@ -35430,7 +35434,7 @@
         <v>78</v>
       </c>
       <c r="AM276" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AN276" t="s" s="2">
         <v>78</v>
@@ -35441,10 +35445,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -35470,10 +35474,10 @@
         <v>233</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -35504,7 +35508,7 @@
       </c>
       <c r="Y277" s="2"/>
       <c r="Z277" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AA277" t="s" s="2">
         <v>78</v>
@@ -35522,7 +35526,7 @@
         <v>78</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AG277" t="s" s="2">
         <v>90</v>
@@ -35537,16 +35541,16 @@
         <v>102</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AL277" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM277" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AN277" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AO277" t="s" s="2">
         <v>78</v>
@@ -35554,10 +35558,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -35669,10 +35673,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -35786,10 +35790,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -35861,7 +35865,7 @@
         <v>78</v>
       </c>
       <c r="AB280" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AC280" s="2"/>
       <c r="AD280" t="s" s="2">
@@ -35903,13 +35907,13 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>78</v>
@@ -35934,7 +35938,7 @@
         <v>154</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M281" t="s" s="2">
         <v>455</v>
@@ -35972,7 +35976,7 @@
       </c>
       <c r="Y281" s="2"/>
       <c r="Z281" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AA281" t="s" s="2">
         <v>78</v>
@@ -36022,13 +36026,13 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D282" t="s" s="2">
         <v>78</v>
@@ -36053,7 +36057,7 @@
         <v>154</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M282" t="s" s="2">
         <v>455</v>
@@ -36091,7 +36095,7 @@
       </c>
       <c r="Y282" s="2"/>
       <c r="Z282" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AA282" t="s" s="2">
         <v>78</v>
@@ -36141,10 +36145,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -36260,10 +36264,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -36289,14 +36293,14 @@
         <v>253</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="P284" t="s" s="2">
         <v>78</v>
@@ -36345,7 +36349,7 @@
         <v>78</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>79</v>
@@ -36366,10 +36370,10 @@
         <v>78</v>
       </c>
       <c r="AM284" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AN284" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AO284" t="s" s="2">
         <v>78</v>
@@ -36377,10 +36381,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -36492,10 +36496,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -36609,10 +36613,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -36638,7 +36642,7 @@
         <v>260</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M287" t="s" s="2">
         <v>262</v>
@@ -36709,7 +36713,7 @@
         <v>102</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AL287" t="s" s="2">
         <v>266</v>
@@ -36726,10 +36730,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -36755,7 +36759,7 @@
         <v>260</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M288" t="s" s="2">
         <v>271</v>
@@ -36828,7 +36832,7 @@
         <v>102</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AL288" t="s" s="2">
         <v>275</v>
@@ -36845,10 +36849,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -36874,10 +36878,10 @@
         <v>536</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -36928,7 +36932,7 @@
         <v>78</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>79</v>
@@ -36949,7 +36953,7 @@
         <v>78</v>
       </c>
       <c r="AM289" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AN289" t="s" s="2">
         <v>78</v>
@@ -36960,10 +36964,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -36986,19 +36990,19 @@
         <v>78</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="P290" t="s" s="2">
         <v>78</v>
@@ -37027,7 +37031,7 @@
       </c>
       <c r="Y290" s="2"/>
       <c r="Z290" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AA290" t="s" s="2">
         <v>78</v>
@@ -37045,7 +37049,7 @@
         <v>78</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>79</v>
@@ -37063,10 +37067,10 @@
         <v>78</v>
       </c>
       <c r="AL290" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AM290" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AN290" t="s" s="2">
         <v>78</v>
